--- a/간트 차트.xlsx
+++ b/간트 차트.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_캡스톤디자인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021 capstone design\Analysis-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BE8CB0-1A55-49F5-9EF2-EA13DD565BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CA7E9C-859A-4879-AA5E-5582B5B8E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52D6CB52-27E2-4B60-B916-4DAEB4938603}"/>
   </bookViews>
@@ -980,7 +980,7 @@
                     <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -1049,7 +1049,7 @@
                     <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
@@ -1178,6 +1178,9 @@
                 <c:pt idx="0">
                   <c:v>44453</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>44455</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1268,6 +1271,9 @@
                 <c:formatCode>0;\-0;;</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -2250,64 +2256,64 @@
                 <c:formatCode>mm"월"\ dd"일"</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44089</c:v>
+                  <c:v>44455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,7 +2395,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>오늘 (9월 15일)</c:v>
+                    <c:v>오늘 (9월 16일)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2430,16 +2436,16 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>44453.9</c:v>
+                    <c:v>-1.1000000000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>-0.1</c:v>
+                    <c:v>44455.9</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>-0.1</c:v>
+                    <c:v>44455.9</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>-0.1</c:v>
+                    <c:v>44455.9</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -2499,16 +2505,16 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>44453.9</c:v>
+                    <c:v>-1.1000000000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>-0.1</c:v>
+                    <c:v>44455.9</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>-0.1</c:v>
+                    <c:v>44455.9</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>-0.1</c:v>
+                    <c:v>44455.9</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -2739,13 +2745,13 @@
                   <c:v>44454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3247,7 +3253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D579D21C-CA8D-4849-AA99-5541B75DF916}" type="CELLRANGE">
+                    <a:fld id="{1292AFFF-0397-42A9-8E76-9554F31CCDD5}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3280,7 +3286,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DF56AC0-A4D3-4D4C-B187-598FC091F984}" type="CELLRANGE">
+                    <a:fld id="{F4098EFC-CD3F-4BB6-BB9C-47F67046D29B}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3313,7 +3319,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7BF8489-EAF9-47A3-AC93-C2DC7131768C}" type="CELLRANGE">
+                    <a:fld id="{8FAA7522-7DCA-40F1-8AFA-856B5856B66A}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3481,7 +3487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E2565B9-9989-405E-8EE6-6CB8C584A9BD}" type="CELLRANGE">
+                    <a:fld id="{31439DAE-38FA-4F97-BF41-8051E6D6839A}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3499,7 +3505,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3558,6 +3563,9 @@
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6502,7 +6510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8975F9B7-3718-4B5C-8363-8210B73185FA}" type="CELLRANGE">
+                    <a:fld id="{EB13CAE9-206F-4781-878E-0AB886A92501}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6520,7 +6528,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12787,8 +12794,8 @@
   </sheetPr>
   <dimension ref="A2:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12832,7 +12839,8 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="7">
-        <v>44089</v>
+        <f ca="1">TODAY()</f>
+        <v>44455</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>3</v>
@@ -12921,8 +12929,8 @@
         <v>18</v>
       </c>
       <c r="R5" s="20" t="str">
-        <f>"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
-        <v>오늘 (9월 15일)</v>
+        <f ca="1">"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
+        <v>오늘 (9월 16일)</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>19</v>
@@ -12992,8 +13000,8 @@
         <v>19.100000000000001</v>
       </c>
       <c r="R6" s="34">
-        <f>D3</f>
-        <v>44089</v>
+        <f ca="1">D3</f>
+        <v>44455</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" ref="S6:S24" si="1">IF(A6="",NA(),19.5-ROW()+6)</f>
@@ -13042,22 +13050,32 @@
         <v>44456</v>
       </c>
       <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="46"/>
+      <c r="J7" s="44">
+        <v>44455</v>
+      </c>
+      <c r="K7" s="45">
+        <v>1</v>
+      </c>
+      <c r="L7" s="41">
+        <v>1</v>
+      </c>
+      <c r="M7" s="42">
+        <v>44456</v>
+      </c>
+      <c r="N7" s="46">
+        <v>1</v>
+      </c>
       <c r="O7" s="47">
         <f t="shared" ref="O7:O25" si="3">L7*N7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="0"/>
         <v>18.100000000000001</v>
       </c>
       <c r="R7" s="34">
-        <f>R6</f>
-        <v>44089</v>
+        <f ca="1">R6</f>
+        <v>44455</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="1"/>
@@ -13073,7 +13091,7 @@
       </c>
       <c r="V7" s="6">
         <f t="shared" si="2"/>
-        <v>44453.9</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="W7" s="36" t="str">
         <f t="shared" ref="W7:W25" si="6">IF(B7="",C7,C7&amp;" ["&amp;B7&amp;"]")</f>
@@ -13120,8 +13138,8 @@
         <v>17.100000000000001</v>
       </c>
       <c r="R8" s="34">
-        <f t="shared" ref="R8:R11" si="7">R7</f>
-        <v>44089</v>
+        <f t="shared" ref="R8:R11" ca="1" si="7">R7</f>
+        <v>44455</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="1"/>
@@ -13129,7 +13147,7 @@
       </c>
       <c r="T8" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44456</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" si="5"/>
@@ -13137,7 +13155,7 @@
       </c>
       <c r="V8" s="6">
         <f t="shared" si="2"/>
-        <v>-0.1</v>
+        <v>44455.9</v>
       </c>
       <c r="W8" s="36" t="str">
         <f t="shared" si="6"/>
@@ -13184,8 +13202,8 @@
         <v>16.100000000000001</v>
       </c>
       <c r="R9" s="34">
-        <f t="shared" si="7"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44455</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="1"/>
@@ -13193,7 +13211,7 @@
       </c>
       <c r="T9" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44456</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="5"/>
@@ -13201,7 +13219,7 @@
       </c>
       <c r="V9" s="6">
         <f t="shared" si="2"/>
-        <v>-0.1</v>
+        <v>44455.9</v>
       </c>
       <c r="W9" s="36" t="str">
         <f t="shared" si="6"/>
@@ -13248,8 +13266,8 @@
         <v>15.100000000000001</v>
       </c>
       <c r="R10" s="34">
-        <f t="shared" si="7"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44455</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="1"/>
@@ -13257,7 +13275,7 @@
       </c>
       <c r="T10" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44456</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="5"/>
@@ -13265,7 +13283,7 @@
       </c>
       <c r="V10" s="6">
         <f t="shared" si="2"/>
-        <v>-0.1</v>
+        <v>44455.9</v>
       </c>
       <c r="W10" s="36" t="str">
         <f t="shared" si="6"/>
@@ -13312,8 +13330,8 @@
         <v>14.100000000000001</v>
       </c>
       <c r="R11" s="34">
-        <f t="shared" si="7"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>44455</v>
       </c>
       <c r="S11" s="6">
         <f t="shared" si="1"/>
@@ -13376,8 +13394,8 @@
         <v>13.100000000000001</v>
       </c>
       <c r="R12" s="34">
-        <f>R11</f>
-        <v>44089</v>
+        <f ca="1">R11</f>
+        <v>44455</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="1"/>
@@ -13440,8 +13458,8 @@
         <v>12.100000000000001</v>
       </c>
       <c r="R13" s="34">
-        <f>R12</f>
-        <v>44089</v>
+        <f ca="1">R12</f>
+        <v>44455</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="1"/>
@@ -13504,8 +13522,8 @@
         <v>11.100000000000001</v>
       </c>
       <c r="R14" s="34">
-        <f>R13</f>
-        <v>44089</v>
+        <f ca="1">R13</f>
+        <v>44455</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="1"/>
@@ -13568,8 +13586,8 @@
         <v>10.100000000000001</v>
       </c>
       <c r="R15" s="34">
-        <f t="shared" ref="R15:R25" si="8">R14</f>
-        <v>44089</v>
+        <f t="shared" ref="R15:R25" ca="1" si="8">R14</f>
+        <v>44455</v>
       </c>
       <c r="S15" s="6">
         <f t="shared" si="1"/>
@@ -13632,8 +13650,8 @@
         <v>9.1000000000000014</v>
       </c>
       <c r="R16" s="34">
-        <f t="shared" si="8"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44455</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="1"/>
@@ -13702,8 +13720,8 @@
         <v>8.1000000000000014</v>
       </c>
       <c r="R17" s="34">
-        <f t="shared" si="8"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44455</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="1"/>
@@ -13773,8 +13791,8 @@
         <v>7.1000000000000014</v>
       </c>
       <c r="R18" s="34">
-        <f t="shared" si="8"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44455</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="1"/>
@@ -13843,8 +13861,8 @@
         <v>6.1000000000000014</v>
       </c>
       <c r="R19" s="34">
-        <f t="shared" si="8"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44455</v>
       </c>
       <c r="S19" s="6">
         <f>IF(A19="",NA(),19.5-ROW()+6)</f>
@@ -13897,8 +13915,8 @@
         <v>#N/A</v>
       </c>
       <c r="R20" s="34">
-        <f t="shared" si="8"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44455</v>
       </c>
       <c r="S20" s="6" t="e">
         <f>IF(A20="",NA(),19.5-ROW()+6)</f>
@@ -13957,8 +13975,8 @@
         <v>#N/A</v>
       </c>
       <c r="R21" s="34">
-        <f t="shared" si="8"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44455</v>
       </c>
       <c r="S21" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14017,8 +14035,8 @@
         <v>#N/A</v>
       </c>
       <c r="R22" s="34">
-        <f t="shared" si="8"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44455</v>
       </c>
       <c r="S22" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14077,8 +14095,8 @@
         <v>#N/A</v>
       </c>
       <c r="R23" s="34">
-        <f t="shared" si="8"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44455</v>
       </c>
       <c r="S23" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14137,8 +14155,8 @@
         <v>#N/A</v>
       </c>
       <c r="R24" s="34">
-        <f t="shared" si="8"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44455</v>
       </c>
       <c r="S24" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14196,8 +14214,8 @@
         <v>0.1</v>
       </c>
       <c r="R25" s="34">
-        <f t="shared" si="8"/>
-        <v>44089</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44455</v>
       </c>
       <c r="S25" s="6">
         <v>0.5</v>

--- a/간트 차트.xlsx
+++ b/간트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021 capstone design\Analysis-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CA7E9C-859A-4879-AA5E-5582B5B8E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CD2524-0B2C-4750-BEC8-75E318B29C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52D6CB52-27E2-4B60-B916-4DAEB4938603}"/>
   </bookViews>
@@ -986,7 +986,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.25</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -1055,7 +1055,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.25</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -1181,6 +1181,9 @@
                 <c:pt idx="1">
                   <c:v>44455</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44456</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1274,6 +1277,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -2256,64 +2262,64 @@
                 <c:formatCode>mm"월"\ dd"일"</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44455</c:v>
+                  <c:v>44456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,7 +2401,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>오늘 (9월 16일)</c:v>
+                    <c:v>오늘 (9월 17일)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2442,7 +2448,7 @@
                     <c:v>44455.9</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>44455.9</c:v>
+                    <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>44455.9</c:v>
@@ -2511,7 +2517,7 @@
                     <c:v>44455.9</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>44455.9</c:v>
+                    <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>44455.9</c:v>
@@ -3253,7 +3259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1292AFFF-0397-42A9-8E76-9554F31CCDD5}" type="CELLRANGE">
+                    <a:fld id="{43C689AC-6347-4D49-A9E6-CDBE4B177A9F}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3286,7 +3292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4098EFC-CD3F-4BB6-BB9C-47F67046D29B}" type="CELLRANGE">
+                    <a:fld id="{2D0A18ED-9252-4F89-8E78-4875322E354B}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3319,7 +3325,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FAA7522-7DCA-40F1-8AFA-856B5856B66A}" type="CELLRANGE">
+                    <a:fld id="{9DBFC2A8-40CE-44D6-9DD4-1AD7BB113307}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3488,7 +3494,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{31439DAE-38FA-4F97-BF41-8051E6D6839A}" type="CELLRANGE">
-                      <a:rPr lang="ko-KR" altLang="en-US"/>
+                      <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3566,6 +3572,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -8760,7 +8769,7 @@
               <a:ea typeface="맑은 고딕"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>CorpCollector (9월 14일~11월 30일) [진행률: 100%]</a:t>
+            <a:t>CorpCollector (9월 14일~11월 30일) [진행률: 75%]</a:t>
           </a:fld>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -12794,8 +12803,8 @@
   </sheetPr>
   <dimension ref="A2:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12829,7 +12838,7 @@
       </c>
       <c r="E2" s="3" t="str">
         <f>D2&amp;" ("&amp;TEXT(E6,"m월 d일")&amp;"~"&amp;TEXT(H19,"m월 d일")&amp;") [진행률: "&amp;TEXT(N3,"0%")&amp;"]"</f>
-        <v>CorpCollector (9월 14일~11월 30일) [진행률: 100%]</v>
+        <v>CorpCollector (9월 14일~11월 30일) [진행률: 75%]</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -12840,14 +12849,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="7">
         <f ca="1">TODAY()</f>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="9">
         <f>SUMPRODUCT(N6:N25,L6:L25)/SUM(L6:L25)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y3" s="10" t="s">
         <v>4</v>
@@ -12930,7 +12939,7 @@
       </c>
       <c r="R5" s="20" t="str">
         <f ca="1">"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
-        <v>오늘 (9월 16일)</v>
+        <v>오늘 (9월 17일)</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>19</v>
@@ -13001,7 +13010,7 @@
       </c>
       <c r="R6" s="34">
         <f ca="1">D3</f>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" ref="S6:S24" si="1">IF(A6="",NA(),19.5-ROW()+6)</f>
@@ -13075,7 +13084,7 @@
       </c>
       <c r="R7" s="34">
         <f ca="1">R6</f>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="1"/>
@@ -13139,7 +13148,7 @@
       </c>
       <c r="R8" s="34">
         <f t="shared" ref="R8:R11" ca="1" si="7">R7</f>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="1"/>
@@ -13188,14 +13197,24 @@
         <v>44462</v>
       </c>
       <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="46"/>
+      <c r="J9" s="44">
+        <v>44456</v>
+      </c>
+      <c r="K9" s="45">
+        <v>6</v>
+      </c>
+      <c r="L9" s="41">
+        <v>1</v>
+      </c>
+      <c r="M9" s="42">
+        <v>44462</v>
+      </c>
+      <c r="N9" s="46">
+        <v>0.25</v>
+      </c>
       <c r="O9" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="0"/>
@@ -13203,7 +13222,7 @@
       </c>
       <c r="R9" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="1"/>
@@ -13219,7 +13238,7 @@
       </c>
       <c r="V9" s="6">
         <f t="shared" si="2"/>
-        <v>44455.9</v>
+        <v>-0.1</v>
       </c>
       <c r="W9" s="36" t="str">
         <f t="shared" si="6"/>
@@ -13258,7 +13277,7 @@
       <c r="M10" s="28"/>
       <c r="N10" s="32"/>
       <c r="O10" s="33">
-        <f t="shared" si="3"/>
+        <f>L10*N10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="6">
@@ -13267,7 +13286,7 @@
       </c>
       <c r="R10" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="1"/>
@@ -13282,7 +13301,7 @@
         <v>3</v>
       </c>
       <c r="V10" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A10=D10,0,T10-J10-0.1)</f>
         <v>44455.9</v>
       </c>
       <c r="W10" s="36" t="str">
@@ -13322,7 +13341,7 @@
       <c r="M11" s="42"/>
       <c r="N11" s="46"/>
       <c r="O11" s="47">
-        <f t="shared" si="3"/>
+        <f>L11*N11</f>
         <v>0</v>
       </c>
       <c r="Q11" s="6">
@@ -13331,7 +13350,7 @@
       </c>
       <c r="R11" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S11" s="6">
         <f t="shared" si="1"/>
@@ -13346,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A11=D11,0,T11-J11-0.1)</f>
         <v>0</v>
       </c>
       <c r="W11" s="36" t="str">
@@ -13395,7 +13414,7 @@
       </c>
       <c r="R12" s="34">
         <f ca="1">R11</f>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="1"/>
@@ -13459,7 +13478,7 @@
       </c>
       <c r="R13" s="34">
         <f ca="1">R12</f>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="1"/>
@@ -13523,7 +13542,7 @@
       </c>
       <c r="R14" s="34">
         <f ca="1">R13</f>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="1"/>
@@ -13587,7 +13606,7 @@
       </c>
       <c r="R15" s="34">
         <f t="shared" ref="R15:R25" ca="1" si="8">R14</f>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S15" s="6">
         <f t="shared" si="1"/>
@@ -13651,7 +13670,7 @@
       </c>
       <c r="R16" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="1"/>
@@ -13721,7 +13740,7 @@
       </c>
       <c r="R17" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="1"/>
@@ -13792,7 +13811,7 @@
       </c>
       <c r="R18" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="1"/>
@@ -13862,7 +13881,7 @@
       </c>
       <c r="R19" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S19" s="6">
         <f>IF(A19="",NA(),19.5-ROW()+6)</f>
@@ -13916,7 +13935,7 @@
       </c>
       <c r="R20" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S20" s="6" t="e">
         <f>IF(A20="",NA(),19.5-ROW()+6)</f>
@@ -13976,7 +13995,7 @@
       </c>
       <c r="R21" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S21" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14036,7 +14055,7 @@
       </c>
       <c r="R22" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S22" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14096,7 +14115,7 @@
       </c>
       <c r="R23" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S23" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14156,7 +14175,7 @@
       </c>
       <c r="R24" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S24" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14215,7 +14234,7 @@
       </c>
       <c r="R25" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="S25" s="6">
         <v>0.5</v>

--- a/간트 차트.xlsx
+++ b/간트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021 capstone design\Analysis-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CD2524-0B2C-4750-BEC8-75E318B29C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A602C86-D05F-414D-9DFD-4F3E4BD32C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52D6CB52-27E2-4B60-B916-4DAEB4938603}"/>
   </bookViews>
@@ -983,13 +983,13 @@
                     <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.25</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -1052,13 +1052,13 @@
                     <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.25</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -1181,7 +1181,13 @@
                 <c:pt idx="1">
                   <c:v>44455</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44456</c:v>
+                </c:pt>
                 <c:pt idx="3">
+                  <c:v>44456</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>44456</c:v>
                 </c:pt>
               </c:numCache>
@@ -1279,8 +1285,14 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2262,64 +2274,64 @@
                 <c:formatCode>mm"월"\ dd"일"</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44456</c:v>
+                  <c:v>44462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2401,7 +2413,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>오늘 (9월 17일)</c:v>
+                    <c:v>오늘 (9월 23일)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2445,13 +2457,13 @@
                     <c:v>-1.1000000000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>44455.9</c:v>
+                    <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>44455.9</c:v>
+                    <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -2514,13 +2526,13 @@
                     <c:v>-1.1000000000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>44455.9</c:v>
+                    <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>44455.9</c:v>
+                    <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -3259,7 +3271,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43C689AC-6347-4D49-A9E6-CDBE4B177A9F}" type="CELLRANGE">
+                    <a:fld id="{0471016A-A772-4621-B0B8-69DC842C3D80}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3292,7 +3304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D0A18ED-9252-4F89-8E78-4875322E354B}" type="CELLRANGE">
+                    <a:fld id="{C632F4BE-652E-4642-9FFD-1CEF9158D4DB}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3325,7 +3337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DBFC2A8-40CE-44D6-9DD4-1AD7BB113307}" type="CELLRANGE">
+                    <a:fld id="{FE128A00-7A6A-4F03-B68B-B757667D7135}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3493,8 +3505,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31439DAE-38FA-4F97-BF41-8051E6D6839A}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ko-KR"/>
+                    <a:fld id="{48F87692-F25B-4331-BC14-74CF41AFC209}" type="CELLRANGE">
+                      <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3573,7 +3585,13 @@
                 <c:pt idx="1">
                   <c:v>44456</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44462</c:v>
+                </c:pt>
                 <c:pt idx="3">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>44462</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -6519,7 +6537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB13CAE9-206F-4781-878E-0AB886A92501}" type="CELLRANGE">
+                    <a:fld id="{0AF84C03-927E-466A-8184-C5B2BBB52AE0}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8769,7 +8787,7 @@
               <a:ea typeface="맑은 고딕"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>CorpCollector (9월 14일~11월 30일) [진행률: 75%]</a:t>
+            <a:t>CorpCollector (9월 14일~11월 30일) [진행률: 100%]</a:t>
           </a:fld>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -12803,8 +12821,8 @@
   </sheetPr>
   <dimension ref="A2:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12838,7 +12856,7 @@
       </c>
       <c r="E2" s="3" t="str">
         <f>D2&amp;" ("&amp;TEXT(E6,"m월 d일")&amp;"~"&amp;TEXT(H19,"m월 d일")&amp;") [진행률: "&amp;TEXT(N3,"0%")&amp;"]"</f>
-        <v>CorpCollector (9월 14일~11월 30일) [진행률: 75%]</v>
+        <v>CorpCollector (9월 14일~11월 30일) [진행률: 100%]</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -12849,14 +12867,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="7">
         <f ca="1">TODAY()</f>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="9">
         <f>SUMPRODUCT(N6:N25,L6:L25)/SUM(L6:L25)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="10" t="s">
         <v>4</v>
@@ -12939,7 +12957,7 @@
       </c>
       <c r="R5" s="20" t="str">
         <f ca="1">"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
-        <v>오늘 (9월 17일)</v>
+        <v>오늘 (9월 23일)</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>19</v>
@@ -13010,7 +13028,7 @@
       </c>
       <c r="R6" s="34">
         <f ca="1">D3</f>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" ref="S6:S24" si="1">IF(A6="",NA(),19.5-ROW()+6)</f>
@@ -13084,7 +13102,7 @@
       </c>
       <c r="R7" s="34">
         <f ca="1">R6</f>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="1"/>
@@ -13133,14 +13151,24 @@
         <v>44462</v>
       </c>
       <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="32"/>
+      <c r="J8" s="30">
+        <v>44456</v>
+      </c>
+      <c r="K8" s="31">
+        <v>6</v>
+      </c>
+      <c r="L8" s="27">
+        <v>6</v>
+      </c>
+      <c r="M8" s="28">
+        <v>44462</v>
+      </c>
+      <c r="N8" s="32">
+        <v>1</v>
+      </c>
       <c r="O8" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="0"/>
@@ -13148,7 +13176,7 @@
       </c>
       <c r="R8" s="34">
         <f t="shared" ref="R8:R11" ca="1" si="7">R7</f>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="1"/>
@@ -13164,7 +13192,7 @@
       </c>
       <c r="V8" s="6">
         <f t="shared" si="2"/>
-        <v>44455.9</v>
+        <v>-0.1</v>
       </c>
       <c r="W8" s="36" t="str">
         <f t="shared" si="6"/>
@@ -13204,17 +13232,17 @@
         <v>6</v>
       </c>
       <c r="L9" s="41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M9" s="42">
         <v>44462</v>
       </c>
       <c r="N9" s="46">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O9" s="47">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="0"/>
@@ -13222,7 +13250,7 @@
       </c>
       <c r="R9" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="1"/>
@@ -13271,14 +13299,24 @@
         <v>44462</v>
       </c>
       <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="32"/>
+      <c r="J10" s="30">
+        <v>44456</v>
+      </c>
+      <c r="K10" s="31">
+        <v>6</v>
+      </c>
+      <c r="L10" s="27">
+        <v>6</v>
+      </c>
+      <c r="M10" s="28">
+        <v>44462</v>
+      </c>
+      <c r="N10" s="32">
+        <v>1</v>
+      </c>
       <c r="O10" s="33">
         <f>L10*N10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="0"/>
@@ -13286,7 +13324,7 @@
       </c>
       <c r="R10" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="1"/>
@@ -13302,7 +13340,7 @@
       </c>
       <c r="V10" s="6">
         <f>IF(A10=D10,0,T10-J10-0.1)</f>
-        <v>44455.9</v>
+        <v>-0.1</v>
       </c>
       <c r="W10" s="36" t="str">
         <f t="shared" si="6"/>
@@ -13350,7 +13388,7 @@
       </c>
       <c r="R11" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S11" s="6">
         <f t="shared" si="1"/>
@@ -13414,7 +13452,7 @@
       </c>
       <c r="R12" s="34">
         <f ca="1">R11</f>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="1"/>
@@ -13478,7 +13516,7 @@
       </c>
       <c r="R13" s="34">
         <f ca="1">R12</f>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="1"/>
@@ -13542,7 +13580,7 @@
       </c>
       <c r="R14" s="34">
         <f ca="1">R13</f>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="1"/>
@@ -13606,7 +13644,7 @@
       </c>
       <c r="R15" s="34">
         <f t="shared" ref="R15:R25" ca="1" si="8">R14</f>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S15" s="6">
         <f t="shared" si="1"/>
@@ -13670,7 +13708,7 @@
       </c>
       <c r="R16" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="1"/>
@@ -13740,7 +13778,7 @@
       </c>
       <c r="R17" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="1"/>
@@ -13811,7 +13849,7 @@
       </c>
       <c r="R18" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="1"/>
@@ -13881,7 +13919,7 @@
       </c>
       <c r="R19" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S19" s="6">
         <f>IF(A19="",NA(),19.5-ROW()+6)</f>
@@ -13935,7 +13973,7 @@
       </c>
       <c r="R20" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S20" s="6" t="e">
         <f>IF(A20="",NA(),19.5-ROW()+6)</f>
@@ -13995,7 +14033,7 @@
       </c>
       <c r="R21" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S21" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14055,7 +14093,7 @@
       </c>
       <c r="R22" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S22" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14115,7 +14153,7 @@
       </c>
       <c r="R23" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S23" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14175,7 +14213,7 @@
       </c>
       <c r="R24" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S24" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14234,7 +14272,7 @@
       </c>
       <c r="R25" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="S25" s="6">
         <v>0.5</v>

--- a/간트 차트.xlsx
+++ b/간트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021 capstone design\Analysis-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A602C86-D05F-414D-9DFD-4F3E4BD32C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD952485-616C-4C4A-91DE-26C4B67CFC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52D6CB52-27E2-4B60-B916-4DAEB4938603}"/>
   </bookViews>
@@ -395,10 +395,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>웹 사이트 프로토타입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>최종 발표 준비</t>
   </si>
   <si>
@@ -434,6 +430,10 @@
   </si>
   <si>
     <t>웹 사이트 최종 구현물, 발표 PPT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 사이트 구현물(4)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -992,10 +992,10 @@
                     <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0</c:v>
@@ -1061,10 +1061,10 @@
                     <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0</c:v>
@@ -1190,6 +1190,12 @@
                 <c:pt idx="4">
                   <c:v>44456</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44463</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1293,6 +1299,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2274,64 +2286,64 @@
                 <c:formatCode>mm"월"\ dd"일"</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44462</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,7 +2425,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>오늘 (9월 23일)</c:v>
+                    <c:v>오늘 (9월 30일)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2472,7 +2484,7 @@
                     <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>-0.1</c:v>
+                    <c:v>44468.9</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>-0.1</c:v>
@@ -2541,7 +2553,7 @@
                     <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>-0.1</c:v>
+                    <c:v>44468.9</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>-0.1</c:v>
@@ -2772,13 +2784,13 @@
                   <c:v>44456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>44463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>44463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3271,7 +3283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0471016A-A772-4621-B0B8-69DC842C3D80}" type="CELLRANGE">
+                    <a:fld id="{F25DAFA4-F5F1-4DA7-8309-A82A009C0A39}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3304,7 +3316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C632F4BE-652E-4642-9FFD-1CEF9158D4DB}" type="CELLRANGE">
+                    <a:fld id="{0D625CF8-54DD-4508-A45C-060C19CFAD22}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3337,7 +3349,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE128A00-7A6A-4F03-B68B-B757667D7135}" type="CELLRANGE">
+                    <a:fld id="{8AAE0E3A-FE4E-4775-843C-2683C9EBF2CD}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3506,7 +3518,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{48F87692-F25B-4331-BC14-74CF41AFC209}" type="CELLRANGE">
-                      <a:rPr lang="ko-KR" altLang="en-US"/>
+                      <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3594,6 +3606,12 @@
                 <c:pt idx="4">
                   <c:v>44462</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44469</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3719,19 +3737,19 @@
                     <c:v>설계서 총합본 [오혜진]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>웹 사이트 프로토타입 [오혜진]</c:v>
+                    <c:v>웹 사이트 구현물(1) [오혜진]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>웹 사이트 구현물(1) [오혜진]</c:v>
+                    <c:v>웹 사이트 구현물(2) [오혜진]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>웹 사이트 구현물(2) [오혜진]</c:v>
+                    <c:v>웹 사이트 구현물(3) [오혜진]</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>발표 PPT, 대본 [오혜진]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>웹 사이트 구현물(3) [오혜진]</c:v>
+                    <c:v>웹 사이트 구현물(4) [오혜진]</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>웹 사이트 최종 구현물, 발표 PPT [오혜진]</c:v>
@@ -6537,7 +6555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AF84C03-927E-466A-8184-C5B2BBB52AE0}" type="CELLRANGE">
+                    <a:fld id="{293BBE91-D7D4-48A0-A6D5-4D98B137B39D}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6555,6 +6573,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12821,8 +12840,8 @@
   </sheetPr>
   <dimension ref="A2:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12867,7 +12886,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="7">
         <f ca="1">TODAY()</f>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>3</v>
@@ -12957,7 +12976,7 @@
       </c>
       <c r="R5" s="20" t="str">
         <f ca="1">"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
-        <v>오늘 (9월 23일)</v>
+        <v>오늘 (9월 30일)</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>19</v>
@@ -13028,7 +13047,7 @@
       </c>
       <c r="R6" s="34">
         <f ca="1">D3</f>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" ref="S6:S24" si="1">IF(A6="",NA(),19.5-ROW()+6)</f>
@@ -13102,7 +13121,7 @@
       </c>
       <c r="R7" s="34">
         <f ca="1">R6</f>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="1"/>
@@ -13176,7 +13195,7 @@
       </c>
       <c r="R8" s="34">
         <f t="shared" ref="R8:R11" ca="1" si="7">R7</f>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="1"/>
@@ -13250,7 +13269,7 @@
       </c>
       <c r="R9" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="1"/>
@@ -13324,7 +13343,7 @@
       </c>
       <c r="R10" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="1"/>
@@ -13373,14 +13392,24 @@
         <v>44463</v>
       </c>
       <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="46"/>
+      <c r="J11" s="44">
+        <v>44462</v>
+      </c>
+      <c r="K11" s="45">
+        <v>1</v>
+      </c>
+      <c r="L11" s="41">
+        <v>1</v>
+      </c>
+      <c r="M11" s="42">
+        <v>44463</v>
+      </c>
+      <c r="N11" s="46">
+        <v>1</v>
+      </c>
       <c r="O11" s="47">
         <f>L11*N11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="0"/>
@@ -13388,7 +13417,7 @@
       </c>
       <c r="R11" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S11" s="6">
         <f t="shared" si="1"/>
@@ -13396,7 +13425,7 @@
       </c>
       <c r="T11" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44463</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="5"/>
@@ -13419,7 +13448,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>75</v>
@@ -13437,14 +13466,24 @@
         <v>44469</v>
       </c>
       <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="32"/>
+      <c r="J12" s="30">
+        <v>44463</v>
+      </c>
+      <c r="K12" s="31">
+        <v>7</v>
+      </c>
+      <c r="L12" s="27">
+        <v>7</v>
+      </c>
+      <c r="M12" s="28">
+        <v>44469</v>
+      </c>
+      <c r="N12" s="32">
+        <v>1</v>
+      </c>
       <c r="O12" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="0"/>
@@ -13452,7 +13491,7 @@
       </c>
       <c r="R12" s="34">
         <f ca="1">R11</f>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="1"/>
@@ -13460,7 +13499,7 @@
       </c>
       <c r="T12" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44463</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="5"/>
@@ -13472,7 +13511,7 @@
       </c>
       <c r="W12" s="36" t="str">
         <f t="shared" si="6"/>
-        <v>웹 사이트 프로토타입 [오혜진]</v>
+        <v>웹 사이트 구현물(1) [오혜진]</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
@@ -13516,7 +13555,7 @@
       </c>
       <c r="R13" s="34">
         <f ca="1">R12</f>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="1"/>
@@ -13524,7 +13563,7 @@
       </c>
       <c r="T13" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44469</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="5"/>
@@ -13532,11 +13571,11 @@
       </c>
       <c r="V13" s="6">
         <f t="shared" si="2"/>
-        <v>-0.1</v>
+        <v>44468.9</v>
       </c>
       <c r="W13" s="36" t="str">
         <f t="shared" si="6"/>
-        <v>웹 사이트 구현물(1) [오혜진]</v>
+        <v>웹 사이트 구현물(2) [오혜진]</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
@@ -13580,7 +13619,7 @@
       </c>
       <c r="R14" s="34">
         <f ca="1">R13</f>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="1"/>
@@ -13600,7 +13639,7 @@
       </c>
       <c r="W14" s="36" t="str">
         <f t="shared" si="6"/>
-        <v>웹 사이트 구현물(2) [오혜진]</v>
+        <v>웹 사이트 구현물(3) [오혜진]</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
@@ -13644,7 +13683,7 @@
       </c>
       <c r="R15" s="34">
         <f t="shared" ref="R15:R25" ca="1" si="8">R14</f>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S15" s="6">
         <f t="shared" si="1"/>
@@ -13675,7 +13714,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>82</v>
@@ -13708,7 +13747,7 @@
       </c>
       <c r="R16" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="1"/>
@@ -13728,18 +13767,18 @@
       </c>
       <c r="W16" s="36" t="str">
         <f t="shared" si="6"/>
-        <v>웹 사이트 구현물(3) [오혜진]</v>
+        <v>웹 사이트 구현물(4) [오혜진]</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>87</v>
@@ -13778,7 +13817,7 @@
       </c>
       <c r="R17" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="1"/>
@@ -13803,7 +13842,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>60</v>
@@ -13812,7 +13851,7 @@
         <v>86</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="25">
         <v>44503</v>
@@ -13849,7 +13888,7 @@
       </c>
       <c r="R18" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="1"/>
@@ -13874,16 +13913,16 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="39">
         <v>44519</v>
@@ -13919,7 +13958,7 @@
       </c>
       <c r="R19" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S19" s="6">
         <f>IF(A19="",NA(),19.5-ROW()+6)</f>
@@ -13973,7 +14012,7 @@
       </c>
       <c r="R20" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S20" s="6" t="e">
         <f>IF(A20="",NA(),19.5-ROW()+6)</f>
@@ -14033,7 +14072,7 @@
       </c>
       <c r="R21" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S21" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14093,7 +14132,7 @@
       </c>
       <c r="R22" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S22" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14153,7 +14192,7 @@
       </c>
       <c r="R23" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S23" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14213,7 +14252,7 @@
       </c>
       <c r="R24" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S24" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14272,7 +14311,7 @@
       </c>
       <c r="R25" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="S25" s="6">
         <v>0.5</v>

--- a/간트 차트.xlsx
+++ b/간트 차트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021 capstone design\Analysis-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD952485-616C-4C4A-91DE-26C4B67CFC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFD2A26-06FC-468F-9EC4-26BCED412023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52D6CB52-27E2-4B60-B916-4DAEB4938603}"/>
   </bookViews>
@@ -998,13 +998,13 @@
                     <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>5</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0</c:v>
@@ -1067,13 +1067,13 @@
                     <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>5</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>0</c:v>
@@ -1196,6 +1196,15 @@
                 <c:pt idx="6">
                   <c:v>44463</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44482</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1305,6 +1314,18 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1404,7 +1425,7 @@
                     <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>7</c:v>
@@ -1416,13 +1437,13 @@
                     <c:v>5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7</c:v>
+                    <c:v>10</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7</c:v>
+                    <c:v>9</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9</c:v>
+                    <c:v>11</c:v>
                   </c:pt>
                   <c:pt idx="13">
                     <c:v>11</c:v>
@@ -1470,7 +1491,7 @@
                     <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>7</c:v>
@@ -1482,13 +1503,13 @@
                     <c:v>5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7</c:v>
+                    <c:v>10</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7</c:v>
+                    <c:v>9</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>9</c:v>
+                    <c:v>11</c:v>
                   </c:pt>
                   <c:pt idx="13">
                     <c:v>11</c:v>
@@ -1552,7 +1573,7 @@
                   <c:v>44463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44470</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44476</c:v>
@@ -1567,7 +1588,7 @@
                   <c:v>44494</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44503</c:v>
+                  <c:v>44501</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44519</c:v>
@@ -2286,64 +2307,64 @@
                 <c:formatCode>mm"월"\ dd"일"</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,7 +2446,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>오늘 (9월 30일)</c:v>
+                    <c:v>오늘 (10월 13일)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2484,7 +2505,7 @@
                     <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>44468.9</c:v>
+                    <c:v>-1.1000000000000001</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>-0.1</c:v>
@@ -2493,7 +2514,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>-0.1</c:v>
+                    <c:v>44482.9</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>-0.1</c:v>
@@ -2553,7 +2574,7 @@
                     <c:v>-0.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>44468.9</c:v>
+                    <c:v>-1.1000000000000001</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>-0.1</c:v>
@@ -2562,7 +2583,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>-0.1</c:v>
+                    <c:v>44482.9</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>-0.1</c:v>
@@ -2793,13 +2814,13 @@
                   <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>44476</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>44487</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>44483</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3283,7 +3304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F25DAFA4-F5F1-4DA7-8309-A82A009C0A39}" type="CELLRANGE">
+                    <a:fld id="{D77D02DC-6E0A-4A84-A26F-C3FA563C2E8A}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3316,7 +3337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D625CF8-54DD-4508-A45C-060C19CFAD22}" type="CELLRANGE">
+                    <a:fld id="{C8BBD6F0-85FC-4231-9694-CCEEBD79FB49}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3349,7 +3370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AAE0E3A-FE4E-4775-843C-2683C9EBF2CD}" type="CELLRANGE">
+                    <a:fld id="{81B344B2-C300-4991-B421-1F42F1BE1986}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3517,8 +3538,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48F87692-F25B-4331-BC14-74CF41AFC209}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ko-KR"/>
+                    <a:fld id="{B0BDF3BF-36B9-468B-BA5F-A99E80E99E42}" type="CELLRANGE">
+                      <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3535,6 +3556,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3611,6 +3633,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44487</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6555,7 +6586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{293BBE91-D7D4-48A0-A6D5-4D98B137B39D}" type="CELLRANGE">
+                    <a:fld id="{5E95D4CA-3C56-4CAE-955A-8962BEA60429}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12841,7 +12872,7 @@
   <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12886,7 +12917,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="7">
         <f ca="1">TODAY()</f>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>3</v>
@@ -12976,7 +13007,7 @@
       </c>
       <c r="R5" s="20" t="str">
         <f ca="1">"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
-        <v>오늘 (9월 30일)</v>
+        <v>오늘 (10월 13일)</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>19</v>
@@ -13047,7 +13078,7 @@
       </c>
       <c r="R6" s="34">
         <f ca="1">D3</f>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" ref="S6:S24" si="1">IF(A6="",NA(),19.5-ROW()+6)</f>
@@ -13121,7 +13152,7 @@
       </c>
       <c r="R7" s="34">
         <f ca="1">R6</f>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="1"/>
@@ -13195,7 +13226,7 @@
       </c>
       <c r="R8" s="34">
         <f t="shared" ref="R8:R11" ca="1" si="7">R7</f>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="1"/>
@@ -13269,7 +13300,7 @@
       </c>
       <c r="R9" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="1"/>
@@ -13343,7 +13374,7 @@
       </c>
       <c r="R10" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="1"/>
@@ -13417,7 +13448,7 @@
       </c>
       <c r="R11" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S11" s="6">
         <f t="shared" si="1"/>
@@ -13457,10 +13488,10 @@
         <v>44463</v>
       </c>
       <c r="F12" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="28">
         <v>44469</v>
@@ -13491,7 +13522,7 @@
       </c>
       <c r="R12" s="34">
         <f ca="1">R11</f>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="1"/>
@@ -13528,7 +13559,7 @@
         <v>78</v>
       </c>
       <c r="E13" s="39">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="F13" s="40">
         <v>7</v>
@@ -13540,14 +13571,24 @@
         <v>44476</v>
       </c>
       <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="46"/>
+      <c r="J13" s="44">
+        <v>44470</v>
+      </c>
+      <c r="K13" s="45">
+        <v>7</v>
+      </c>
+      <c r="L13" s="41">
+        <v>7</v>
+      </c>
+      <c r="M13" s="42">
+        <v>44476</v>
+      </c>
+      <c r="N13" s="46">
+        <v>1</v>
+      </c>
       <c r="O13" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="0"/>
@@ -13555,7 +13596,7 @@
       </c>
       <c r="R13" s="34">
         <f ca="1">R12</f>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="1"/>
@@ -13571,7 +13612,7 @@
       </c>
       <c r="V13" s="6">
         <f t="shared" si="2"/>
-        <v>44468.9</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="W13" s="36" t="str">
         <f t="shared" si="6"/>
@@ -13604,14 +13645,24 @@
         <v>44483</v>
       </c>
       <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="32"/>
+      <c r="J14" s="30">
+        <v>44476</v>
+      </c>
+      <c r="K14" s="31">
+        <v>7</v>
+      </c>
+      <c r="L14" s="27">
+        <v>7</v>
+      </c>
+      <c r="M14" s="28">
+        <v>44483</v>
+      </c>
+      <c r="N14" s="32">
+        <v>1</v>
+      </c>
       <c r="O14" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="0"/>
@@ -13619,7 +13670,7 @@
       </c>
       <c r="R14" s="34">
         <f ca="1">R13</f>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="1"/>
@@ -13627,7 +13678,7 @@
       </c>
       <c r="T14" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44476</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="5"/>
@@ -13668,14 +13719,24 @@
         <v>44487</v>
       </c>
       <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="46"/>
+      <c r="J15" s="44">
+        <v>44482</v>
+      </c>
+      <c r="K15" s="45">
+        <v>5</v>
+      </c>
+      <c r="L15" s="41">
+        <v>5</v>
+      </c>
+      <c r="M15" s="42">
+        <v>44487</v>
+      </c>
+      <c r="N15" s="46">
+        <v>1</v>
+      </c>
       <c r="O15" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="0"/>
@@ -13683,7 +13744,7 @@
       </c>
       <c r="R15" s="34">
         <f t="shared" ref="R15:R25" ca="1" si="8">R14</f>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S15" s="6">
         <f t="shared" si="1"/>
@@ -13691,7 +13752,7 @@
       </c>
       <c r="T15" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44487</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="5"/>
@@ -13723,20 +13784,24 @@
         <v>44484</v>
       </c>
       <c r="F16" s="26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" s="27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H16" s="28">
-        <v>44491</v>
+        <v>44494</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31"/>
-      <c r="L16" s="27"/>
+      <c r="L16" s="27">
+        <v>0</v>
+      </c>
       <c r="M16" s="28"/>
-      <c r="N16" s="32"/>
+      <c r="N16" s="32">
+        <v>0</v>
+      </c>
       <c r="O16" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -13747,7 +13812,7 @@
       </c>
       <c r="R16" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="1"/>
@@ -13755,7 +13820,7 @@
       </c>
       <c r="T16" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>44483</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="5"/>
@@ -13763,7 +13828,7 @@
       </c>
       <c r="V16" s="6">
         <f t="shared" si="2"/>
-        <v>-0.1</v>
+        <v>44482.9</v>
       </c>
       <c r="W16" s="36" t="str">
         <f t="shared" si="6"/>
@@ -13787,10 +13852,10 @@
         <v>44494</v>
       </c>
       <c r="F17" s="40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" s="41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H17" s="42">
         <v>44503</v>
@@ -13799,14 +13864,15 @@
       <c r="J17" s="44"/>
       <c r="K17" s="45"/>
       <c r="L17" s="41">
-        <f t="shared" ref="L17:L25" si="9">M17-J17</f>
         <v>0</v>
       </c>
       <c r="M17" s="42">
-        <f t="shared" ref="M17:M25" si="10">WORKDAY.INTL(J17,K17,1)</f>
+        <f t="shared" ref="M17:M25" si="9">WORKDAY.INTL(J17,K17,1)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="46"/>
+      <c r="N17" s="46">
+        <v>0</v>
+      </c>
       <c r="O17" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -13817,7 +13883,7 @@
       </c>
       <c r="R17" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="1"/>
@@ -13854,14 +13920,14 @@
         <v>96</v>
       </c>
       <c r="E18" s="25">
-        <v>44503</v>
+        <v>44501</v>
       </c>
       <c r="F18" s="26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" s="27">
-        <f>9</f>
-        <v>9</v>
+        <f>11</f>
+        <v>11</v>
       </c>
       <c r="H18" s="28">
         <v>44512</v>
@@ -13870,14 +13936,15 @@
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
       <c r="L18" s="27">
+        <v>0</v>
+      </c>
+      <c r="M18" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M18" s="28">
-        <f t="shared" si="10"/>
+      <c r="N18" s="32">
         <v>0</v>
       </c>
-      <c r="N18" s="32"/>
       <c r="O18" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -13888,7 +13955,7 @@
       </c>
       <c r="R18" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="1"/>
@@ -13940,14 +14007,15 @@
       <c r="J19" s="44"/>
       <c r="K19" s="45"/>
       <c r="L19" s="41">
+        <v>0</v>
+      </c>
+      <c r="M19" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M19" s="42">
-        <f t="shared" si="10"/>
+      <c r="N19" s="46">
         <v>0</v>
       </c>
-      <c r="N19" s="46"/>
       <c r="O19" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -13958,7 +14026,7 @@
       </c>
       <c r="R19" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S19" s="6">
         <f>IF(A19="",NA(),19.5-ROW()+6)</f>
@@ -13994,11 +14062,11 @@
       <c r="J20" s="30"/>
       <c r="K20" s="31"/>
       <c r="L20" s="27">
+        <f t="shared" ref="L17:L25" si="10">M20-J20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="28">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N20" s="32"/>
@@ -14012,7 +14080,7 @@
       </c>
       <c r="R20" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S20" s="6" t="e">
         <f>IF(A20="",NA(),19.5-ROW()+6)</f>
@@ -14054,11 +14122,11 @@
       <c r="J21" s="44"/>
       <c r="K21" s="45"/>
       <c r="L21" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="42">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N21" s="46"/>
@@ -14072,7 +14140,7 @@
       </c>
       <c r="R21" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S21" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14114,11 +14182,11 @@
       <c r="J22" s="30"/>
       <c r="K22" s="31"/>
       <c r="L22" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="28">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N22" s="32"/>
@@ -14132,7 +14200,7 @@
       </c>
       <c r="R22" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S22" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14174,11 +14242,11 @@
       <c r="J23" s="44"/>
       <c r="K23" s="45"/>
       <c r="L23" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="42">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N23" s="46"/>
@@ -14192,7 +14260,7 @@
       </c>
       <c r="R23" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S23" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14234,11 +14302,11 @@
       <c r="J24" s="30"/>
       <c r="K24" s="31"/>
       <c r="L24" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="28">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="28">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N24" s="32"/>
@@ -14252,7 +14320,7 @@
       </c>
       <c r="R24" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S24" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14294,11 +14362,11 @@
       <c r="J25" s="44"/>
       <c r="K25" s="45"/>
       <c r="L25" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="42">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N25" s="46"/>
@@ -14311,7 +14379,7 @@
       </c>
       <c r="R25" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="S25" s="6">
         <v>0.5</v>

--- a/간트 차트.xlsx
+++ b/간트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021 capstone design\Analysis-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFD2A26-06FC-468F-9EC4-26BCED412023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85745264-0365-43E5-AED9-11C07BA4363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52D6CB52-27E2-4B60-B916-4DAEB4938603}"/>
   </bookViews>
@@ -2307,64 +2307,64 @@
                 <c:formatCode>mm"월"\ dd"일"</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44482</c:v>
+                  <c:v>44484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,7 +2446,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>오늘 (10월 13일)</c:v>
+                    <c:v>오늘 (10월 15일)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -3304,7 +3304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D77D02DC-6E0A-4A84-A26F-C3FA563C2E8A}" type="CELLRANGE">
+                    <a:fld id="{C393AB6F-6A09-4F48-B55C-73F9B532C9FC}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3337,7 +3337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8BBD6F0-85FC-4231-9694-CCEEBD79FB49}" type="CELLRANGE">
+                    <a:fld id="{3A29BCDD-1243-4597-9E6A-7771C029D8A1}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3370,7 +3370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81B344B2-C300-4991-B421-1F42F1BE1986}" type="CELLRANGE">
+                    <a:fld id="{083D943D-FAB5-4BD1-A232-B0D8BD2E8464}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3556,7 +3556,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6586,7 +6585,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E95D4CA-3C56-4CAE-955A-8962BEA60429}" type="CELLRANGE">
+                    <a:fld id="{312AE7C9-7DBE-4370-8280-ABB8667EE74E}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12871,8 +12870,8 @@
   </sheetPr>
   <dimension ref="A2:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12917,7 +12916,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="7">
         <f ca="1">TODAY()</f>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>3</v>
@@ -13007,7 +13006,7 @@
       </c>
       <c r="R5" s="20" t="str">
         <f ca="1">"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
-        <v>오늘 (10월 13일)</v>
+        <v>오늘 (10월 15일)</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>19</v>
@@ -13078,7 +13077,7 @@
       </c>
       <c r="R6" s="34">
         <f ca="1">D3</f>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" ref="S6:S24" si="1">IF(A6="",NA(),19.5-ROW()+6)</f>
@@ -13152,7 +13151,7 @@
       </c>
       <c r="R7" s="34">
         <f ca="1">R6</f>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="1"/>
@@ -13226,7 +13225,7 @@
       </c>
       <c r="R8" s="34">
         <f t="shared" ref="R8:R11" ca="1" si="7">R7</f>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="1"/>
@@ -13300,7 +13299,7 @@
       </c>
       <c r="R9" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="1"/>
@@ -13374,7 +13373,7 @@
       </c>
       <c r="R10" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="1"/>
@@ -13448,7 +13447,7 @@
       </c>
       <c r="R11" s="34">
         <f t="shared" ca="1" si="7"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S11" s="6">
         <f t="shared" si="1"/>
@@ -13522,7 +13521,7 @@
       </c>
       <c r="R12" s="34">
         <f ca="1">R11</f>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="1"/>
@@ -13596,7 +13595,7 @@
       </c>
       <c r="R13" s="34">
         <f ca="1">R12</f>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="1"/>
@@ -13670,7 +13669,7 @@
       </c>
       <c r="R14" s="34">
         <f ca="1">R13</f>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="1"/>
@@ -13744,7 +13743,7 @@
       </c>
       <c r="R15" s="34">
         <f t="shared" ref="R15:R25" ca="1" si="8">R14</f>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S15" s="6">
         <f t="shared" si="1"/>
@@ -13812,7 +13811,7 @@
       </c>
       <c r="R16" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="1"/>
@@ -13883,7 +13882,7 @@
       </c>
       <c r="R17" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="1"/>
@@ -13955,7 +13954,7 @@
       </c>
       <c r="R18" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="1"/>
@@ -14026,7 +14025,7 @@
       </c>
       <c r="R19" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S19" s="6">
         <f>IF(A19="",NA(),19.5-ROW()+6)</f>
@@ -14062,7 +14061,7 @@
       <c r="J20" s="30"/>
       <c r="K20" s="31"/>
       <c r="L20" s="27">
-        <f t="shared" ref="L17:L25" si="10">M20-J20</f>
+        <f t="shared" ref="L20:L25" si="10">M20-J20</f>
         <v>0</v>
       </c>
       <c r="M20" s="28">
@@ -14080,7 +14079,7 @@
       </c>
       <c r="R20" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S20" s="6" t="e">
         <f>IF(A20="",NA(),19.5-ROW()+6)</f>
@@ -14140,7 +14139,7 @@
       </c>
       <c r="R21" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S21" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14200,7 +14199,7 @@
       </c>
       <c r="R22" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S22" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14260,7 +14259,7 @@
       </c>
       <c r="R23" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S23" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14320,7 +14319,7 @@
       </c>
       <c r="R24" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S24" s="6" t="e">
         <f t="shared" si="1"/>
@@ -14379,7 +14378,7 @@
       </c>
       <c r="R25" s="34">
         <f t="shared" ca="1" si="8"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="S25" s="6">
         <v>0.5</v>
